--- a/output_data/Away 1.5 - 2.0 Live_2024-10-16.xlsx
+++ b/output_data/Away 1.5 - 2.0 Live_2024-10-16.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -40,10 +40,27 @@
       <u val="single"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
       <u val="single"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00333333"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -52,25 +69,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="00008000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="009999FF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="00FFCC00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008000"/>
+        <fgColor rgb="00FF6600"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF8080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="003366FF"/>
       </patternFill>
     </fill>
   </fills>
@@ -105,18 +129,29 @@
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,10 +554,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U70"/>
+  <dimension ref="A1:V70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J83" sqref="J83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -634,96 +669,96 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/EXLhbUee/#/match-summary</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>Genoa</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D2" s="3" t="inlineStr">
         <is>
           <t>Bologna</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>['Atalanta', 'Genoa']</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>('Atalanta', '1TIW')</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>5 - 1</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>['Bologna', 'Parma']</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>('Parma', '2TIH')</t>
         </is>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="T2" t="b">
+      <c r="T2" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U2" t="b">
+      <c r="U2" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -776,7 +811,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K3" s="3" t="inlineStr">
+      <c r="K3" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -791,7 +826,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N3" s="3" t="inlineStr">
+      <c r="N3" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -820,273 +855,273 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" customFormat="1" s="3">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/KYrBJTuC/#/match-summary</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="3" t="inlineStr">
         <is>
           <t>Newcastle Jets</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="3" t="inlineStr">
         <is>
           <t>Melbourne City</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="3" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="3" t="inlineStr">
         <is>
           <t>3.82</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
         <is>
           <t>2.19</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H4" s="3" t="inlineStr">
         <is>
           <t>['Newcastle Jets', 'Macarthur FC']</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" s="3" t="inlineStr">
         <is>
           <t>('Macarthur FC', '1TIH')</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="J4" s="3" t="inlineStr">
         <is>
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="K4" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="L4" s="3" t="inlineStr">
         <is>
           <t>['Perth Glory', 'Melbourne City']</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="M4" s="3" t="inlineStr">
         <is>
           <t>5 - 4</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="N4" s="3" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="O4" s="3" t="inlineStr">
         <is>
           <t>('Perth Glory', '2TIW')</t>
         </is>
       </c>
-      <c r="P4" t="n">
+      <c r="P4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="T4" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" t="b">
+      <c r="T4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="1" s="6">
-      <c r="A5" s="6" t="n">
+    <row r="5" customFormat="1" s="3">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/G0xKH7AO/#/match-summary</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="C5" s="3" t="inlineStr">
         <is>
           <t>WS Wanderers</t>
         </is>
       </c>
-      <c r="D5" s="6" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
         <is>
           <t>Sydney FC</t>
         </is>
       </c>
-      <c r="E5" s="6" t="inlineStr">
+      <c r="E5" s="3" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="F5" s="3" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
         <is>
           <t>2.35</t>
         </is>
       </c>
-      <c r="H5" s="6" t="inlineStr">
+      <c r="H5" s="3" t="inlineStr">
         <is>
           <t>['Adelaide United', 'WS Wanderers']</t>
         </is>
       </c>
-      <c r="I5" s="6" t="inlineStr">
+      <c r="I5" s="3" t="inlineStr">
         <is>
           <t>('Adelaide United', '1TIW')</t>
         </is>
       </c>
-      <c r="J5" s="6" t="inlineStr">
+      <c r="J5" s="3" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K5" s="6" t="inlineStr">
+      <c r="K5" s="8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="L5" s="6" t="inlineStr">
+      <c r="L5" s="3" t="inlineStr">
         <is>
           <t>['Kaya', 'Sydney FC']</t>
         </is>
       </c>
-      <c r="M5" s="6" t="inlineStr">
+      <c r="M5" s="3" t="inlineStr">
         <is>
           <t>1 - 4</t>
         </is>
       </c>
-      <c r="N5" s="6" t="inlineStr">
+      <c r="N5" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O5" s="6" t="inlineStr">
+      <c r="O5" s="3" t="inlineStr">
         <is>
           <t>('Kaya', '2TIW')</t>
         </is>
       </c>
-      <c r="P5" s="6" t="n">
+      <c r="P5" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Q5" s="6" t="n">
+      <c r="Q5" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="R5" s="6" t="n">
+      <c r="R5" s="3" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="1" s="6">
-      <c r="A6" s="6" t="n">
+    <row r="6" customFormat="1" s="3">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/MD5UwUkO/#/match-summary</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="C6" s="3" t="inlineStr">
         <is>
           <t>Ituano</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" s="3" t="inlineStr">
         <is>
           <t>Ceara</t>
         </is>
       </c>
-      <c r="E6" s="6" t="inlineStr">
+      <c r="E6" s="3" t="inlineStr">
         <is>
           <t>3.21</t>
         </is>
       </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="F6" s="3" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
         <is>
           <t>2.27</t>
         </is>
       </c>
-      <c r="H6" s="6" t="inlineStr">
+      <c r="H6" s="3" t="inlineStr">
         <is>
           <t>['Brusque', 'Ituano']</t>
         </is>
       </c>
-      <c r="I6" s="6" t="inlineStr">
+      <c r="I6" s="3" t="inlineStr">
         <is>
           <t>('Brusque', '1TIW')</t>
         </is>
       </c>
-      <c r="J6" s="6" t="inlineStr">
+      <c r="J6" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K6" s="6" t="inlineStr">
+      <c r="K6" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L6" s="6" t="inlineStr">
+      <c r="L6" s="3" t="inlineStr">
         <is>
           <t>['Ceara', 'Ponte Preta']</t>
         </is>
       </c>
-      <c r="M6" s="6" t="inlineStr">
+      <c r="M6" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N6" s="6" t="inlineStr">
+      <c r="N6" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O6" s="6" t="inlineStr">
+      <c r="O6" s="3" t="inlineStr">
         <is>
           <t>('Ponte Preta', '2TIH')</t>
         </is>
       </c>
-      <c r="P6" s="6" t="n">
+      <c r="P6" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="Q6" s="6" t="n">
+      <c r="Q6" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="R6" s="6" t="n">
+      <c r="R6" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="S6" s="6" t="n">
+      <c r="S6" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="T6" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="6" t="b">
+      <c r="T6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1139,7 +1174,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K7" s="3" t="inlineStr">
+      <c r="K7" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1227,12 +1262,12 @@
           <t>("O'Higgins", '1TIW')</t>
         </is>
       </c>
-      <c r="J8" s="5" t="inlineStr">
+      <c r="J8" s="3" t="inlineStr">
         <is>
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K8" s="3" t="inlineStr">
+      <c r="K8" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1247,7 +1282,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N8" s="3" t="inlineStr">
+      <c r="N8" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1276,366 +1311,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" customFormat="1" s="3">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/QNuckvg4/#/match-summary</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C9" s="3" t="inlineStr">
         <is>
           <t>Sibenik</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
         <is>
           <t>Osijek</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" s="3" t="inlineStr">
         <is>
           <t>3.71</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" s="3" t="inlineStr">
         <is>
           <t>3.38</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
         <is>
           <t>2.00</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H9" s="3" t="inlineStr">
         <is>
           <t>['Hajduk Split', 'Sibenik']</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I9" s="3" t="inlineStr">
         <is>
           <t>('Hajduk Split', '1TIW')</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J9" s="5" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="K9" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="L9" s="3" t="inlineStr">
         <is>
           <t>['Istra 1961', 'Osijek']</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="M9" s="3" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="N9" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="O9" s="3" t="inlineStr">
         <is>
           <t>('Istra 1961', '2TIW')</t>
         </is>
       </c>
-      <c r="P9" t="n">
+      <c r="P9" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="Q9" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="R9" t="n">
+      <c r="R9" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="S9" t="n">
+      <c r="S9" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="T9" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" t="b">
+      <c r="T9" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" customFormat="1" s="3">
+      <c r="A10" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/SvUGSwk1/#/match-summary</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" s="3" t="inlineStr">
         <is>
           <t>Oxford Utd</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="D10" s="3" t="inlineStr">
         <is>
           <t>West Brom</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" s="3" t="inlineStr">
         <is>
           <t>3.66</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" s="3" t="inlineStr">
         <is>
           <t>3.52</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
         <is>
           <t>2.02</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="H10" s="3" t="inlineStr">
         <is>
           <t>['Portsmouth', 'Oxford Utd']</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="I10" s="3" t="inlineStr">
         <is>
           <t>('Portsmouth', '1TIW')</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="J10" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="K10" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="L10" s="3" t="inlineStr">
         <is>
           <t>['West Brom', 'Millwall']</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="M10" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="N10" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="O10" s="3" t="inlineStr">
         <is>
           <t>('Millwall', '2TIH')</t>
         </is>
       </c>
-      <c r="P10" t="n">
+      <c r="P10" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="Q10" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="R10" t="n">
+      <c r="R10" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="S10" t="n">
+      <c r="S10" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="T10" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" t="b">
+      <c r="T10" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" customFormat="1" s="3">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/z5XOQHJD/#/match-summary</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C11" s="3" t="inlineStr">
         <is>
           <t>Preston</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
         <is>
           <t>Coventry</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" s="3" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" s="3" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
         <is>
           <t>2.48</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="H11" s="3" t="inlineStr">
         <is>
           <t>['Burnley', 'Preston']</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="I11" s="3" t="inlineStr">
         <is>
           <t>('Burnley', '1TIW')</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="J11" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="K11" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="L11" s="3" t="inlineStr">
         <is>
           <t>['Coventry', 'Sheffield Wed']</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="M11" s="3" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="N11" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="O11" s="3" t="inlineStr">
         <is>
           <t>('Sheffield Wed', '2TIH')</t>
         </is>
       </c>
-      <c r="P11" t="n">
+      <c r="P11" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="Q11" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="R11" t="n">
+      <c r="R11" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="S11" t="n">
+      <c r="S11" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="T11" t="b">
+      <c r="T11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U11" t="b">
+      <c r="U11" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" customFormat="1" s="6">
-      <c r="A12" s="6" t="n">
+    <row r="12" customFormat="1" s="3">
+      <c r="A12" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/CdiuQh7t/#/match-summary</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="C12" s="3" t="inlineStr">
         <is>
           <t>Cambridge Utd</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" s="3" t="inlineStr">
         <is>
           <t>Wigan</t>
         </is>
       </c>
-      <c r="E12" s="6" t="inlineStr">
+      <c r="E12" s="3" t="inlineStr">
         <is>
           <t>3.17</t>
         </is>
       </c>
-      <c r="F12" s="6" t="inlineStr">
+      <c r="F12" s="3" t="inlineStr">
         <is>
           <t>3.32</t>
         </is>
       </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="H12" s="3" t="inlineStr">
         <is>
           <t>['Exeter', 'Cambridge Utd']</t>
         </is>
       </c>
-      <c r="I12" s="6" t="inlineStr">
+      <c r="I12" s="3" t="inlineStr">
         <is>
           <t>('Exeter', '1TIW')</t>
         </is>
       </c>
-      <c r="J12" s="6" t="inlineStr">
+      <c r="J12" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K12" s="6" t="inlineStr">
+      <c r="K12" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L12" s="6" t="inlineStr">
+      <c r="L12" s="3" t="inlineStr">
         <is>
           <t>['Carlisle', 'Wigan']</t>
         </is>
       </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="M12" s="3" t="inlineStr">
         <is>
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="N12" s="6" t="inlineStr">
+      <c r="N12" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O12" s="6" t="inlineStr">
+      <c r="O12" s="3" t="inlineStr">
         <is>
           <t>('Carlisle', '2TIW')</t>
         </is>
       </c>
-      <c r="P12" s="6" t="n">
+      <c r="P12" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="Q12" s="6" t="n">
+      <c r="Q12" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="R12" s="6" t="n">
+      <c r="R12" s="3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1683,12 +1718,12 @@
           <t>('Notts Co', '1TIW')</t>
         </is>
       </c>
-      <c r="J13" s="5" t="inlineStr">
+      <c r="J13" s="3" t="inlineStr">
         <is>
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
+      <c r="K13" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1769,7 +1804,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
+      <c r="K14" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1862,7 +1897,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
+      <c r="K15" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1955,7 +1990,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="K16" s="3" t="inlineStr">
+      <c r="K16" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -1999,549 +2034,549 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="1" s="6">
-      <c r="A17" s="6" t="n">
+    <row r="17" customFormat="1" s="3">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/6o5TuOU6/#/match-summary</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="C17" s="3" t="inlineStr">
         <is>
           <t>Kaiserslautern</t>
         </is>
       </c>
-      <c r="D17" s="6" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
         <is>
           <t>Paderborn</t>
         </is>
       </c>
-      <c r="E17" s="6" t="inlineStr">
+      <c r="E17" s="3" t="inlineStr">
         <is>
           <t>2.71</t>
         </is>
       </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="F17" s="3" t="inlineStr">
         <is>
           <t>3.80</t>
         </is>
       </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
         <is>
           <t>2.36</t>
         </is>
       </c>
-      <c r="H17" s="6" t="inlineStr">
+      <c r="H17" s="3" t="inlineStr">
         <is>
           <t>['Freiburg', 'Kaiserslautern']</t>
         </is>
       </c>
-      <c r="I17" s="6" t="inlineStr">
+      <c r="I17" s="3" t="inlineStr">
         <is>
           <t>('Freiburg', '1TIW')</t>
         </is>
       </c>
-      <c r="J17" s="6" t="inlineStr">
+      <c r="J17" s="3" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K17" s="6" t="inlineStr">
+      <c r="K17" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L17" s="6" t="inlineStr">
+      <c r="L17" s="3" t="inlineStr">
         <is>
           <t>['Paderborn', 'Regensburg']</t>
         </is>
       </c>
-      <c r="M17" s="6" t="inlineStr">
+      <c r="M17" s="3" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N17" s="6" t="inlineStr">
+      <c r="N17" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O17" s="6" t="inlineStr">
+      <c r="O17" s="3" t="inlineStr">
         <is>
           <t>('Regensburg', '2TIH')</t>
         </is>
       </c>
-      <c r="P17" s="6" t="n">
+      <c r="P17" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="Q17" s="6" t="n">
+      <c r="Q17" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="S17" s="6" t="n">
+      <c r="S17" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="T17" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="6" t="b">
+      <c r="T17" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="n">
+    <row r="18" customFormat="1" s="3">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="inlineStr">
+      <c r="B18" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/QVqSKKFb/#/match-summary</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" s="3" t="inlineStr">
         <is>
           <t>Lamia</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D18" s="3" t="inlineStr">
         <is>
           <t>Asteras Tripolis</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E18" s="3" t="inlineStr">
         <is>
           <t>3.42</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F18" s="3" t="inlineStr">
         <is>
           <t>3.40</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
         <is>
           <t>2.15</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" s="3" t="inlineStr">
         <is>
           <t>['Aris', 'Lamia']</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="I18" s="3" t="inlineStr">
         <is>
           <t>('Aris', '1TIW')</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="J18" s="3" t="inlineStr">
         <is>
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="K18" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="L18" s="3" t="inlineStr">
         <is>
           <t>['Kavala', 'Asteras Tripolis']</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="M18" s="3" t="inlineStr">
         <is>
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="N18" s="3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="O18" s="3" t="inlineStr">
         <is>
           <t>('Kavala', '2TIW')</t>
         </is>
       </c>
-      <c r="P18" t="n">
+      <c r="P18" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q18" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="R18" t="n">
+      <c r="R18" s="3" t="n">
         <v>4</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="19" customFormat="1" s="3">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/00tXJU36/#/match-summary</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" s="3" t="inlineStr">
         <is>
           <t>Hafnarfjordur</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
         <is>
           <t>Valur</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="E19" s="3" t="inlineStr">
         <is>
           <t>2.89</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F19" s="3" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
         <is>
           <t>2.12</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" s="3" t="inlineStr">
         <is>
           <t>['Akranes', 'Hafnarfjordur']</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="I19" s="3" t="inlineStr">
         <is>
           <t>('Akranes', '1TIW')</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="J19" s="5" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="K19" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="L19" s="3" t="inlineStr">
         <is>
           <t>['Breidablik', 'Valur']</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="M19" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="N19" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="O19" s="3" t="inlineStr">
         <is>
           <t>('Breidablik', '2TIW')</t>
         </is>
       </c>
-      <c r="P19" t="n">
+      <c r="P19" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q19" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R19" t="n">
+      <c r="R19" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S19" t="n">
+      <c r="S19" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="T19" t="b">
+      <c r="T19" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U19" t="b">
+      <c r="U19" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" customFormat="1" s="3">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/pnsm7D0D/#/match-summary</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" s="3" t="inlineStr">
         <is>
           <t>Persis Solo</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="D20" s="3" t="inlineStr">
         <is>
           <t>Borneo</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="3" t="inlineStr">
         <is>
           <t>3.08</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" s="3" t="inlineStr">
         <is>
           <t>3.00</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
         <is>
           <t>2.27</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" s="3" t="inlineStr">
         <is>
           <t>['Semen Padang', 'Persis Solo']</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="I20" s="3" t="inlineStr">
         <is>
           <t>('Semen Padang', '1TIW')</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="J20" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="L20" s="3" t="inlineStr">
         <is>
           <t>['Borneo', 'Persita']</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="M20" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="N20" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="O20" s="3" t="inlineStr">
         <is>
           <t>('Persita', '2TIH')</t>
         </is>
       </c>
-      <c r="P20" t="n">
+      <c r="P20" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="Q20" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="R20" t="n">
+      <c r="R20" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S20" t="n">
+      <c r="S20" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="T20" t="b">
+      <c r="T20" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U20" t="b">
+      <c r="U20" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
+    <row r="21" customFormat="1" s="3">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/QyyAb25j/#/match-summary</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="3" t="inlineStr">
         <is>
           <t>Sligo Rovers</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
         <is>
           <t>Bohemians</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="3" t="inlineStr">
         <is>
           <t>2.72</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="3" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
         <is>
           <t>2.49</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="H21" s="3" t="inlineStr">
         <is>
           <t>['Derry City', 'Sligo Rovers']</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="I21" s="3" t="inlineStr">
         <is>
           <t>('Derry City', '1TIW')</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="J21" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="K21" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="L21" s="3" t="inlineStr">
         <is>
           <t>['Bohemians', 'St. Patricks']</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="M21" s="3" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="N21" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="O21" s="3" t="inlineStr">
         <is>
           <t>('St. Patricks', '2TIH')</t>
         </is>
       </c>
-      <c r="P21" t="n">
+      <c r="P21" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="Q21" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="R21" t="n">
+      <c r="R21" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="S21" t="n">
+      <c r="S21" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="T21" t="b">
+      <c r="T21" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U21" t="b">
+      <c r="U21" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
+    <row r="22" customFormat="1" s="3">
+      <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="inlineStr">
+      <c r="B22" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/YXCWXGQ0/#/match-summary</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="C22" s="3" t="inlineStr">
         <is>
           <t>Sakhnin</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="D22" s="3" t="inlineStr">
         <is>
           <t>Beitar Jerusalem</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="E22" s="3" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="F22" s="3" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
         <is>
           <t>2.03</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H22" s="3" t="inlineStr">
         <is>
           <t>['Maccabi Haifa', 'Sakhnin']</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I22" s="3" t="inlineStr">
         <is>
           <t>('Maccabi Haifa', '1TIW')</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J22" s="5" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="K22" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="L22" s="3" t="inlineStr">
         <is>
           <t>['Beitar Jerusalem', 'Kiryat Shmona']</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="M22" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="N22" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="O22" s="3" t="inlineStr">
         <is>
           <t>('Kiryat Shmona', '2TIH')</t>
         </is>
       </c>
-      <c r="P22" t="n">
+      <c r="P22" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="Q22" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="R22" t="n">
+      <c r="R22" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="S22" t="n">
+      <c r="S22" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T22" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" t="b">
+      <c r="T22" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2589,12 +2624,12 @@
           <t>('Slask Wroclaw', '1TIW')</t>
         </is>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="3" t="inlineStr">
         <is>
           <t>2 - 4</t>
         </is>
       </c>
-      <c r="K23" s="3" t="inlineStr">
+      <c r="K23" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2609,7 +2644,7 @@
           <t>3 - 4</t>
         </is>
       </c>
-      <c r="N23" s="3" t="inlineStr">
+      <c r="N23" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2678,7 +2713,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K24" s="3" t="inlineStr">
+      <c r="K24" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2693,7 +2728,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="N24" s="3" t="inlineStr">
+      <c r="N24" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2771,7 +2806,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K25" s="3" t="inlineStr">
+      <c r="K25" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2786,7 +2821,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N25" s="3" t="inlineStr">
+      <c r="N25" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2859,12 +2894,12 @@
           <t>('Dumbarton', '1TIW')</t>
         </is>
       </c>
-      <c r="J26" s="5" t="inlineStr">
+      <c r="J26" s="3" t="inlineStr">
         <is>
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="K26" s="3" t="inlineStr">
+      <c r="K26" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2879,7 +2914,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N26" s="3" t="inlineStr">
+      <c r="N26" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -2957,7 +2992,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K27" s="3" t="inlineStr">
+      <c r="K27" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3001,96 +3036,96 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="1" s="6">
-      <c r="A28" s="6" t="n">
+    <row r="28" customFormat="1" s="3">
+      <c r="A28" s="3" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="7" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/ID6dfMsF/#/match-summary</t>
         </is>
       </c>
-      <c r="C28" s="6" t="inlineStr">
+      <c r="C28" s="3" t="inlineStr">
         <is>
           <t>Bucheon FC 1995</t>
         </is>
       </c>
-      <c r="D28" s="6" t="inlineStr">
+      <c r="D28" s="3" t="inlineStr">
         <is>
           <t>Suwon Bluewings</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
+      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>2.76</t>
         </is>
       </c>
-      <c r="F28" s="6" t="inlineStr">
+      <c r="F28" s="3" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="G28" s="6" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
         <is>
           <t>2.38</t>
         </is>
       </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="H28" s="3" t="inlineStr">
         <is>
           <t>['Bucheon FC 1995', 'Cheongju']</t>
         </is>
       </c>
-      <c r="I28" s="6" t="inlineStr">
+      <c r="I28" s="3" t="inlineStr">
         <is>
           <t>('Cheongju', '1TIH')</t>
         </is>
       </c>
-      <c r="J28" s="6" t="inlineStr">
+      <c r="J28" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K28" s="6" t="inlineStr">
+      <c r="K28" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L28" s="6" t="inlineStr">
+      <c r="L28" s="3" t="inlineStr">
         <is>
           <t>['Suwon Bluewings', 'Anyang']</t>
         </is>
       </c>
-      <c r="M28" s="6" t="inlineStr">
+      <c r="M28" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N28" s="6" t="inlineStr">
+      <c r="N28" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O28" s="6" t="inlineStr">
+      <c r="O28" s="3" t="inlineStr">
         <is>
           <t>('Anyang', '2TIH')</t>
         </is>
       </c>
-      <c r="P28" s="6" t="n">
+      <c r="P28" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="Q28" s="6" t="n">
+      <c r="Q28" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="R28" s="6" t="n">
+      <c r="R28" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S28" s="6" t="n">
+      <c r="S28" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T28" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U28" s="6" t="b">
+      <c r="T28" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3143,7 +3178,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K29" s="3" t="inlineStr">
+      <c r="K29" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3187,642 +3222,648 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="1" s="6">
-      <c r="A30" s="6" t="n">
+    <row r="30" customFormat="1" s="3">
+      <c r="A30" s="10" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="7" t="inlineStr">
+      <c r="B30" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/0Gbq66zh/#/match-summary</t>
         </is>
       </c>
-      <c r="C30" s="6" t="inlineStr">
+      <c r="C30" s="10" t="inlineStr">
         <is>
           <t>Skovde AIK</t>
         </is>
       </c>
-      <c r="D30" s="6" t="inlineStr">
+      <c r="D30" s="10" t="inlineStr">
         <is>
           <t>Utsikten</t>
         </is>
       </c>
-      <c r="E30" s="6" t="inlineStr">
+      <c r="E30" s="10" t="inlineStr">
         <is>
           <t>3.22</t>
         </is>
       </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="F30" s="10" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="G30" s="6" t="inlineStr">
+      <c r="G30" s="10" t="inlineStr">
         <is>
           <t>2.13</t>
         </is>
       </c>
-      <c r="H30" s="6" t="inlineStr">
+      <c r="H30" s="10" t="inlineStr">
         <is>
           <t>['Landskrona', 'Skovde AIK']</t>
         </is>
       </c>
-      <c r="I30" s="6" t="inlineStr">
+      <c r="I30" s="10" t="inlineStr">
         <is>
           <t>('Landskrona', '1TIW')</t>
         </is>
       </c>
-      <c r="J30" s="6" t="inlineStr">
+      <c r="J30" s="12" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="K30" s="6" t="inlineStr">
+      <c r="K30" s="13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L30" s="6" t="inlineStr">
+      <c r="L30" s="10" t="inlineStr">
         <is>
           <t>['Utsikten', 'Helsingborg']</t>
         </is>
       </c>
-      <c r="M30" s="6" t="inlineStr">
+      <c r="M30" s="12" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="N30" s="6" t="inlineStr">
+      <c r="N30" s="10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O30" s="6" t="inlineStr">
+      <c r="O30" s="10" t="inlineStr">
         <is>
           <t>('Helsingborg', '2TIH')</t>
         </is>
       </c>
-      <c r="P30" s="6" t="n">
+      <c r="P30" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="Q30" s="6" t="n">
+      <c r="Q30" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="R30" s="6" t="n">
+      <c r="R30" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="S30" s="6" t="n">
+      <c r="S30" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="T30" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U30" s="6" t="b">
+      <c r="T30" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="1" s="6">
-      <c r="A31" s="6" t="n">
+    <row r="31" customFormat="1" s="3">
+      <c r="A31" s="3" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="7" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/MVnh4p54/#/match-summary</t>
         </is>
       </c>
-      <c r="C31" s="6" t="inlineStr">
+      <c r="C31" s="3" t="inlineStr">
         <is>
           <t>Ostersund</t>
         </is>
       </c>
-      <c r="D31" s="6" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
         <is>
           <t>Landskrona</t>
         </is>
       </c>
-      <c r="E31" s="6" t="inlineStr">
+      <c r="E31" s="3" t="inlineStr">
         <is>
           <t>2.92</t>
         </is>
       </c>
-      <c r="F31" s="6" t="inlineStr">
+      <c r="F31" s="3" t="inlineStr">
         <is>
           <t>3.48</t>
         </is>
       </c>
-      <c r="G31" s="6" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
         <is>
           <t>2.30</t>
         </is>
       </c>
-      <c r="H31" s="6" t="inlineStr">
+      <c r="H31" s="3" t="inlineStr">
         <is>
           <t>['Sandviken', 'Ostersund']</t>
         </is>
       </c>
-      <c r="I31" s="6" t="inlineStr">
+      <c r="I31" s="3" t="inlineStr">
         <is>
           <t>('Sandviken', '1TIW')</t>
         </is>
       </c>
-      <c r="J31" s="6" t="inlineStr">
+      <c r="J31" s="3" t="inlineStr">
         <is>
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K31" s="6" t="inlineStr">
+      <c r="K31" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L31" s="6" t="inlineStr">
+      <c r="L31" s="3" t="inlineStr">
         <is>
           <t>['Landskrona', 'Skovde AIK']</t>
         </is>
       </c>
-      <c r="M31" s="6" t="inlineStr">
+      <c r="M31" s="3" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="N31" s="6" t="inlineStr">
+      <c r="N31" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O31" s="6" t="inlineStr">
+      <c r="O31" s="3" t="inlineStr">
         <is>
           <t>('Skovde AIK', '2TIH')</t>
         </is>
       </c>
-      <c r="P31" s="6" t="n">
+      <c r="P31" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="Q31" s="6" t="n">
+      <c r="Q31" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R31" s="6" t="n">
+      <c r="R31" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="S31" s="6" t="n">
+      <c r="S31" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="T31" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U31" s="6" t="b">
+      <c r="T31" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="1" s="8">
-      <c r="A32" s="3" t="n">
+    <row r="32" customFormat="1" s="2">
+      <c r="A32" s="14" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="15" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/C0alTHDc/#/match-summary</t>
         </is>
       </c>
-      <c r="C32" s="3" t="inlineStr">
+      <c r="C32" s="14" t="inlineStr">
         <is>
           <t>Grasshoppers</t>
         </is>
       </c>
-      <c r="D32" s="3" t="inlineStr">
+      <c r="D32" s="14" t="inlineStr">
         <is>
           <t>Zurich</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E32" s="14" t="inlineStr">
         <is>
           <t>2.90</t>
         </is>
       </c>
-      <c r="F32" s="3" t="inlineStr">
+      <c r="F32" s="14" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="G32" s="3" t="inlineStr">
+      <c r="G32" s="14" t="inlineStr">
         <is>
           <t>2.40</t>
         </is>
       </c>
-      <c r="H32" s="3" t="inlineStr">
+      <c r="H32" s="14" t="inlineStr">
         <is>
           <t>['Grasshoppers', 'Xamax']</t>
         </is>
       </c>
-      <c r="I32" s="3" t="inlineStr">
+      <c r="I32" s="14" t="inlineStr">
         <is>
           <t>('Xamax', '1TIH')</t>
         </is>
       </c>
-      <c r="J32" s="3" t="inlineStr">
+      <c r="J32" s="16" t="inlineStr">
         <is>
           <t>6 - 0</t>
         </is>
       </c>
-      <c r="K32" s="3" t="inlineStr">
+      <c r="K32" s="16" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L32" s="3" t="inlineStr">
+      <c r="L32" s="14" t="inlineStr">
         <is>
           <t>['Zurich', 'Vaduz']</t>
         </is>
       </c>
-      <c r="M32" s="3" t="inlineStr">
+      <c r="M32" s="14" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="N32" s="3" t="inlineStr">
+      <c r="N32" s="14" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O32" s="3" t="inlineStr">
+      <c r="O32" s="14" t="inlineStr">
         <is>
           <t>('Vaduz', '2TIH')</t>
         </is>
       </c>
-      <c r="P32" s="3" t="n">
+      <c r="P32" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="Q32" s="3" t="n">
+      <c r="Q32" s="14" t="n">
         <v>2</v>
       </c>
+      <c r="R32" s="17" t="n"/>
+      <c r="S32" s="17" t="n"/>
+      <c r="T32" s="17" t="n"/>
+      <c r="U32" s="17" t="n"/>
+      <c r="V32" s="17" t="n"/>
     </row>
-    <row r="33" customFormat="1" s="6">
-      <c r="A33" s="6" t="n">
+    <row r="33" customFormat="1" s="3">
+      <c r="A33" s="10" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="7" t="inlineStr">
+      <c r="B33" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/fuV9C2Vo/#/match-summary</t>
         </is>
       </c>
-      <c r="C33" s="6" t="inlineStr">
+      <c r="C33" s="10" t="inlineStr">
         <is>
           <t>Bandirmaspor</t>
         </is>
       </c>
-      <c r="D33" s="6" t="inlineStr">
+      <c r="D33" s="10" t="inlineStr">
         <is>
           <t>Karagumruk</t>
         </is>
       </c>
-      <c r="E33" s="6" t="inlineStr">
+      <c r="E33" s="10" t="inlineStr">
         <is>
           <t>2.68</t>
         </is>
       </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="F33" s="10" t="inlineStr">
         <is>
           <t>3.20</t>
         </is>
       </c>
-      <c r="G33" s="6" t="inlineStr">
+      <c r="G33" s="10" t="inlineStr">
         <is>
           <t>2.47</t>
         </is>
       </c>
-      <c r="H33" s="6" t="inlineStr">
+      <c r="H33" s="10" t="inlineStr">
         <is>
           <t>['Umraniyespor', 'Bandirmaspor']</t>
         </is>
       </c>
-      <c r="I33" s="6" t="inlineStr">
+      <c r="I33" s="10" t="inlineStr">
         <is>
           <t>('Umraniyespor', '1TIW')</t>
         </is>
       </c>
-      <c r="J33" s="6" t="inlineStr">
+      <c r="J33" s="10" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K33" s="6" t="inlineStr">
+      <c r="K33" s="13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L33" s="6" t="inlineStr">
+      <c r="L33" s="10" t="inlineStr">
         <is>
           <t>['Karagumruk', 'Sakaryaspor']</t>
         </is>
       </c>
-      <c r="M33" s="6" t="inlineStr">
+      <c r="M33" s="12" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="N33" s="6" t="inlineStr">
+      <c r="N33" s="10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O33" s="6" t="inlineStr">
+      <c r="O33" s="10" t="inlineStr">
         <is>
           <t>('Sakaryaspor', '2TIH')</t>
         </is>
       </c>
-      <c r="P33" s="6" t="n">
+      <c r="P33" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="Q33" s="6" t="n">
+      <c r="Q33" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="R33" s="6" t="n">
+      <c r="R33" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="S33" s="6" t="n">
+      <c r="S33" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="T33" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U33" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="T33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V33" s="18" t="n"/>
     </row>
-    <row r="34" customFormat="1" s="6">
-      <c r="A34" s="6" t="n">
+    <row r="34" customFormat="1" s="3">
+      <c r="A34" s="3" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="inlineStr">
+      <c r="B34" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/YXdXeON5/#/match-summary</t>
         </is>
       </c>
-      <c r="C34" s="6" t="inlineStr">
+      <c r="C34" s="3" t="inlineStr">
         <is>
           <t>Adanaspor AS</t>
         </is>
       </c>
-      <c r="D34" s="6" t="inlineStr">
+      <c r="D34" s="3" t="inlineStr">
         <is>
           <t>Sanliurfaspor</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
+      <c r="E34" s="3" t="inlineStr">
         <is>
           <t>2.66</t>
         </is>
       </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="F34" s="3" t="inlineStr">
         <is>
           <t>3.30</t>
         </is>
       </c>
-      <c r="G34" s="6" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
         <is>
           <t>2.44</t>
         </is>
       </c>
-      <c r="H34" s="6" t="inlineStr">
+      <c r="H34" s="3" t="inlineStr">
         <is>
           <t>['Ankaragucu', 'Adanaspor AS']</t>
         </is>
       </c>
-      <c r="I34" s="6" t="inlineStr">
+      <c r="I34" s="3" t="inlineStr">
         <is>
           <t>('Ankaragucu', '1TIW')</t>
         </is>
       </c>
-      <c r="J34" s="6" t="inlineStr">
+      <c r="J34" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="K34" s="6" t="inlineStr">
+      <c r="K34" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L34" s="6" t="inlineStr">
+      <c r="L34" s="3" t="inlineStr">
         <is>
           <t>['Sanliurfaspor', 'Yeni Malatyaspor']</t>
         </is>
       </c>
-      <c r="M34" s="6" t="inlineStr">
+      <c r="M34" s="3" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N34" s="6" t="inlineStr">
+      <c r="N34" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O34" s="6" t="inlineStr">
+      <c r="O34" s="3" t="inlineStr">
         <is>
           <t>('Yeni Malatyaspor', '2TIH')</t>
         </is>
       </c>
-      <c r="P34" s="6" t="n">
+      <c r="P34" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="Q34" s="6" t="n">
+      <c r="Q34" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="R34" s="6" t="n">
+      <c r="R34" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="S34" s="6" t="n">
+      <c r="S34" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="T34" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U34" s="6" t="b">
+      <c r="T34" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="1" s="6">
-      <c r="A35" s="6" t="n">
+    <row r="35" customFormat="1" s="3">
+      <c r="A35" s="3" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/jeK76OSC/#/match-summary</t>
         </is>
       </c>
-      <c r="C35" s="6" t="inlineStr">
+      <c r="C35" s="3" t="inlineStr">
         <is>
           <t>CF Montreal</t>
         </is>
       </c>
-      <c r="D35" s="6" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
         <is>
           <t>New York City</t>
         </is>
       </c>
-      <c r="E35" s="6" t="inlineStr">
+      <c r="E35" s="3" t="inlineStr">
         <is>
           <t>2.81</t>
         </is>
       </c>
-      <c r="F35" s="6" t="inlineStr">
+      <c r="F35" s="3" t="inlineStr">
         <is>
           <t>4.12</t>
         </is>
       </c>
-      <c r="G35" s="6" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
         <is>
           <t>2.22</t>
         </is>
       </c>
-      <c r="H35" s="6" t="inlineStr">
+      <c r="H35" s="3" t="inlineStr">
         <is>
           <t>['Charlotte', 'CF Montreal']</t>
         </is>
       </c>
-      <c r="I35" s="6" t="inlineStr">
+      <c r="I35" s="3" t="inlineStr">
         <is>
           <t>('Charlotte', '1TIW')</t>
         </is>
       </c>
-      <c r="J35" s="6" t="inlineStr">
+      <c r="J35" s="3" t="inlineStr">
         <is>
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K35" s="6" t="inlineStr">
+      <c r="K35" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L35" s="6" t="inlineStr">
+      <c r="L35" s="3" t="inlineStr">
         <is>
           <t>['New York City', 'Nashville SC']</t>
         </is>
       </c>
-      <c r="M35" s="6" t="inlineStr">
+      <c r="M35" s="3" t="inlineStr">
         <is>
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="N35" s="6" t="inlineStr">
+      <c r="N35" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O35" s="6" t="inlineStr">
+      <c r="O35" s="3" t="inlineStr">
         <is>
           <t>('Nashville SC', '2TIH')</t>
         </is>
       </c>
-      <c r="P35" s="6" t="n">
+      <c r="P35" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="Q35" s="6" t="n">
+      <c r="Q35" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="R35" s="6" t="n">
+      <c r="R35" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="S35" s="6" t="n">
+      <c r="S35" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="T35" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U35" s="6" t="b">
+      <c r="T35" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="1" s="6">
-      <c r="A36" s="6" t="n">
+    <row r="36" customFormat="1" s="3">
+      <c r="A36" s="3" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="inlineStr">
+      <c r="B36" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/ShJjaSDs/#/match-summary</t>
         </is>
       </c>
-      <c r="C36" s="6" t="inlineStr">
+      <c r="C36" s="3" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="D36" s="6" t="inlineStr">
+      <c r="D36" s="3" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="E36" s="6" t="inlineStr">
+      <c r="E36" s="3" t="inlineStr">
         <is>
           <t>4.89</t>
         </is>
       </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="F36" s="3" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="G36" s="6" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
         <is>
           <t>1.71</t>
         </is>
       </c>
-      <c r="H36" s="6" t="inlineStr">
+      <c r="H36" s="3" t="inlineStr">
         <is>
           <t>['Leicester', 'Bournemouth']</t>
         </is>
       </c>
-      <c r="I36" s="6" t="inlineStr">
+      <c r="I36" s="3" t="inlineStr">
         <is>
           <t>('Leicester', '1TIW')</t>
         </is>
       </c>
-      <c r="J36" s="6" t="inlineStr">
+      <c r="J36" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K36" s="6" t="inlineStr">
+      <c r="K36" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L36" s="6" t="inlineStr">
+      <c r="L36" s="3" t="inlineStr">
         <is>
           <t>['Arsenal', 'Southampton']</t>
         </is>
       </c>
-      <c r="M36" s="6" t="inlineStr">
+      <c r="M36" s="3" t="inlineStr">
         <is>
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="N36" s="6" t="inlineStr">
+      <c r="N36" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O36" s="6" t="inlineStr">
+      <c r="O36" s="3" t="inlineStr">
         <is>
           <t>('Southampton', '2TIH')</t>
         </is>
       </c>
-      <c r="P36" s="6" t="n">
+      <c r="P36" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="Q36" s="6" t="n">
+      <c r="Q36" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R36" s="6" t="n">
+      <c r="R36" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="S36" s="6" t="n">
+      <c r="S36" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="T36" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U36" s="6" t="b">
+      <c r="T36" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -3875,7 +3916,7 @@
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="K37" s="3" t="inlineStr">
+      <c r="K37" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -3919,284 +3960,286 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="1" s="8">
-      <c r="A38" s="3" t="n">
+    <row r="38" customFormat="1" s="2">
+      <c r="A38" s="14" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="15" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/E7rNpTBk/#/match-summary</t>
         </is>
       </c>
-      <c r="C38" s="3" t="inlineStr">
+      <c r="C38" s="14" t="inlineStr">
         <is>
           <t>Mainz</t>
         </is>
       </c>
-      <c r="D38" s="3" t="inlineStr">
+      <c r="D38" s="14" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="E38" s="3" t="inlineStr">
+      <c r="E38" s="14" t="inlineStr">
         <is>
           <t>4.27</t>
         </is>
       </c>
-      <c r="F38" s="3" t="inlineStr">
+      <c r="F38" s="14" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="G38" s="3" t="inlineStr">
+      <c r="G38" s="14" t="inlineStr">
         <is>
           <t>1.86</t>
         </is>
       </c>
-      <c r="H38" s="3" t="inlineStr">
+      <c r="H38" s="14" t="inlineStr">
         <is>
           <t>['St. Pauli', 'Mainz']</t>
         </is>
       </c>
-      <c r="I38" s="3" t="inlineStr">
+      <c r="I38" s="14" t="inlineStr">
         <is>
           <t>('St. Pauli', '1TIW')</t>
         </is>
       </c>
-      <c r="J38" s="3" t="inlineStr">
+      <c r="J38" s="16" t="inlineStr">
         <is>
           <t>0 - 3</t>
         </is>
       </c>
-      <c r="K38" s="3" t="inlineStr">
+      <c r="K38" s="19" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L38" s="3" t="inlineStr">
+      <c r="L38" s="14" t="inlineStr">
         <is>
           <t>['Heidenheim', 'RB Leipzig']</t>
         </is>
       </c>
-      <c r="M38" s="3" t="inlineStr">
+      <c r="M38" s="14" t="inlineStr">
         <is>
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N38" s="3" t="inlineStr">
+      <c r="N38" s="14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O38" s="3" t="inlineStr">
+      <c r="O38" s="14" t="inlineStr">
         <is>
           <t>('Heidenheim', '2TIW')</t>
         </is>
       </c>
-      <c r="P38" s="3" t="n">
+      <c r="P38" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="Q38" s="3" t="n">
+      <c r="Q38" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="R38" s="3" t="n">
+      <c r="R38" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="S38" s="3" t="n">
+      <c r="S38" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="T38" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U38" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="T38" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U38" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V38" s="17" t="n"/>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" customFormat="1" s="3">
+      <c r="A39" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/IBk4c4qd/#/match-summary</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="C39" s="3" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
         <is>
           <t>PSV</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="F39" s="3" t="inlineStr">
         <is>
           <t>3.98</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="H39" s="3" t="inlineStr">
         <is>
           <t>['Sittard', 'AZ Alkmaar']</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="I39" s="3" t="inlineStr">
         <is>
           <t>('Sittard', '1TIW')</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="J39" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="K39" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="L39" s="3" t="inlineStr">
         <is>
           <t>['PSV', 'Sparta Rotterdam']</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="M39" s="3" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="N39" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="O39" s="3" t="inlineStr">
         <is>
           <t>('Sparta Rotterdam', '2TIH')</t>
         </is>
       </c>
-      <c r="P39" t="n">
+      <c r="P39" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="Q39" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R39" t="n">
+      <c r="R39" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S39" t="n">
+      <c r="S39" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="T39" t="b">
-        <v>0</v>
-      </c>
-      <c r="U39" t="b">
+      <c r="T39" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U39" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="1" s="8">
-      <c r="A40" s="3" t="n">
+    <row r="40" customFormat="1" s="2">
+      <c r="A40" s="14" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="15" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/A3cW0wjl/#/match-summary</t>
         </is>
       </c>
-      <c r="C40" s="3" t="inlineStr">
+      <c r="C40" s="14" t="inlineStr">
         <is>
           <t>G.A. Eagles</t>
         </is>
       </c>
-      <c r="D40" s="3" t="inlineStr">
+      <c r="D40" s="14" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="E40" s="3" t="inlineStr">
+      <c r="E40" s="14" t="inlineStr">
         <is>
           <t>4.91</t>
         </is>
       </c>
-      <c r="F40" s="3" t="inlineStr">
+      <c r="F40" s="14" t="inlineStr">
         <is>
           <t>4.15</t>
         </is>
       </c>
-      <c r="G40" s="3" t="inlineStr">
+      <c r="G40" s="14" t="inlineStr">
         <is>
           <t>1.65</t>
         </is>
       </c>
-      <c r="H40" s="3" t="inlineStr">
+      <c r="H40" s="14" t="inlineStr">
         <is>
           <t>['G.A. Eagles', 'Heracles']</t>
         </is>
       </c>
-      <c r="I40" s="3" t="inlineStr">
+      <c r="I40" s="14" t="inlineStr">
         <is>
           <t>('Heracles', '1TIH')</t>
         </is>
       </c>
-      <c r="J40" s="3" t="inlineStr">
+      <c r="J40" s="16" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="K40" s="3" t="inlineStr">
+      <c r="K40" s="19" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L40" s="3" t="inlineStr">
+      <c r="L40" s="14" t="inlineStr">
         <is>
           <t>['Feyenoord', 'Twente']</t>
         </is>
       </c>
-      <c r="M40" s="3" t="inlineStr">
+      <c r="M40" s="14" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N40" s="3" t="inlineStr">
+      <c r="N40" s="14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O40" s="3" t="inlineStr">
+      <c r="O40" s="14" t="inlineStr">
         <is>
           <t>('Twente', '2TIH')</t>
         </is>
       </c>
-      <c r="P40" s="3" t="n">
+      <c r="P40" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="Q40" s="3" t="n">
+      <c r="Q40" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="R40" s="3" t="n">
+      <c r="R40" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="S40" s="3" t="n">
+      <c r="S40" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="T40" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U40" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="T40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="U40" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V40" s="17" t="n"/>
     </row>
     <row r="41" customFormat="1" s="3">
       <c r="A41" s="3" t="n">
@@ -4247,7 +4290,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K41" s="3" t="inlineStr">
+      <c r="K41" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4262,7 +4305,7 @@
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N41" s="3" t="inlineStr">
+      <c r="N41" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4291,189 +4334,189 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" customFormat="1" s="3">
+      <c r="A42" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="inlineStr">
+      <c r="B42" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/WtzvBrf5/#/match-summary</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C42" s="3" t="inlineStr">
         <is>
           <t>Westerlo</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D42" s="3" t="inlineStr">
         <is>
           <t>Club Brugge KV</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E42" s="3" t="inlineStr">
         <is>
           <t>4.18</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F42" s="3" t="inlineStr">
         <is>
           <t>4.23</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G42" s="3" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H42" s="3" t="inlineStr">
         <is>
           <t>['Westerlo', 'Beerschot VA']</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="I42" s="3" t="inlineStr">
         <is>
           <t>('Beerschot VA', '1TIH')</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="J42" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="K42" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="L42" s="3" t="inlineStr">
         <is>
           <t>['Club Brugge KV', 'Royale Union SG']</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="M42" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="N42" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="O42" s="3" t="inlineStr">
         <is>
           <t>('Royale Union SG', '2TIH')</t>
         </is>
       </c>
-      <c r="P42" t="n">
+      <c r="P42" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Q42" t="n">
+      <c r="Q42" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="R42" t="n">
+      <c r="R42" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="S42" t="n">
+      <c r="S42" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="T42" t="b">
-        <v>0</v>
-      </c>
-      <c r="U42" t="b">
+      <c r="T42" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="1" s="6">
-      <c r="A43" s="6" t="n">
+    <row r="43" customFormat="1" s="3">
+      <c r="A43" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="B43" s="7" t="inlineStr">
+      <c r="B43" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/lvGsfeEO/#/match-summary</t>
         </is>
       </c>
-      <c r="C43" s="6" t="inlineStr">
+      <c r="C43" s="3" t="inlineStr">
         <is>
           <t>Valour</t>
         </is>
       </c>
-      <c r="D43" s="6" t="inlineStr">
+      <c r="D43" s="3" t="inlineStr">
         <is>
           <t>Cavalry</t>
         </is>
       </c>
-      <c r="E43" s="6" t="inlineStr">
+      <c r="E43" s="3" t="inlineStr">
         <is>
           <t>3.95</t>
         </is>
       </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="F43" s="3" t="inlineStr">
         <is>
           <t>3.45</t>
         </is>
       </c>
-      <c r="G43" s="6" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr">
         <is>
           <t>1.80</t>
         </is>
       </c>
-      <c r="H43" s="6" t="inlineStr">
+      <c r="H43" s="3" t="inlineStr">
         <is>
           <t>['Vancouver FC', 'Valour']</t>
         </is>
       </c>
-      <c r="I43" s="6" t="inlineStr">
+      <c r="I43" s="3" t="inlineStr">
         <is>
           <t>('Vancouver FC', '1TIW')</t>
         </is>
       </c>
-      <c r="J43" s="6" t="inlineStr">
+      <c r="J43" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K43" s="6" t="inlineStr">
+      <c r="K43" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L43" s="6" t="inlineStr">
+      <c r="L43" s="3" t="inlineStr">
         <is>
           <t>['Cavalry', 'HFX Wanderers']</t>
         </is>
       </c>
-      <c r="M43" s="6" t="inlineStr">
+      <c r="M43" s="3" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N43" s="6" t="inlineStr">
+      <c r="N43" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O43" s="6" t="inlineStr">
+      <c r="O43" s="3" t="inlineStr">
         <is>
           <t>('HFX Wanderers', '2TIH')</t>
         </is>
       </c>
-      <c r="P43" s="6" t="n">
+      <c r="P43" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="Q43" s="6" t="n">
+      <c r="Q43" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="R43" s="6" t="n">
+      <c r="R43" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="S43" s="6" t="n">
+      <c r="S43" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T43" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U43" s="6" t="b">
+      <c r="T43" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -4526,7 +4569,7 @@
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K44" s="3" t="inlineStr">
+      <c r="K44" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4541,7 +4584,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N44" s="3" t="inlineStr">
+      <c r="N44" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4553,94 +4596,96 @@
       </c>
     </row>
     <row r="45" customFormat="1" s="3">
-      <c r="A45" s="3" t="n">
+      <c r="A45" s="10" t="n">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/x4x5KlyI/#/match-summary</t>
         </is>
       </c>
-      <c r="C45" s="3" t="inlineStr">
+      <c r="C45" s="10" t="inlineStr">
         <is>
           <t>Lincoln</t>
         </is>
       </c>
-      <c r="D45" s="3" t="inlineStr">
+      <c r="D45" s="10" t="inlineStr">
         <is>
           <t>Birmingham</t>
         </is>
       </c>
-      <c r="E45" s="3" t="inlineStr">
+      <c r="E45" s="10" t="inlineStr">
         <is>
           <t>4.10</t>
         </is>
       </c>
-      <c r="F45" s="3" t="inlineStr">
+      <c r="F45" s="10" t="inlineStr">
         <is>
           <t>3.62</t>
         </is>
       </c>
-      <c r="G45" s="3" t="inlineStr">
+      <c r="G45" s="10" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="H45" s="3" t="inlineStr">
+      <c r="H45" s="10" t="inlineStr">
         <is>
           <t>['Grimsby', 'Lincoln']</t>
         </is>
       </c>
-      <c r="I45" s="3" t="inlineStr">
+      <c r="I45" s="10" t="inlineStr">
         <is>
           <t>('Grimsby', '1TIW')</t>
         </is>
       </c>
-      <c r="J45" s="3" t="inlineStr">
+      <c r="J45" s="10" t="inlineStr">
         <is>
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K45" s="3" t="inlineStr">
+      <c r="K45" s="13" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L45" s="3" t="inlineStr">
+      <c r="L45" s="10" t="inlineStr">
         <is>
           <t>['Shrewsbury', 'Birmingham']</t>
         </is>
       </c>
-      <c r="M45" s="3" t="inlineStr">
+      <c r="M45" s="12" t="inlineStr">
         <is>
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="N45" s="3" t="inlineStr">
+      <c r="N45" s="10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O45" s="3" t="inlineStr">
+      <c r="O45" s="10" t="inlineStr">
         <is>
           <t>('Shrewsbury', '2TIW')</t>
         </is>
       </c>
-      <c r="P45" s="3" t="n">
+      <c r="P45" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="Q45" s="3" t="n">
+      <c r="Q45" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="S45" s="3" t="n">
+      <c r="R45" s="18" t="n"/>
+      <c r="S45" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="T45" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="T45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U45" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V45" s="18" t="n"/>
     </row>
     <row r="46" customFormat="1" s="3">
       <c r="A46" s="3" t="n">
@@ -4691,7 +4736,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K46" s="3" t="inlineStr">
+      <c r="K46" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4735,177 +4780,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="1" s="6">
-      <c r="A47" s="6" t="n">
+    <row r="47" customFormat="1" s="3">
+      <c r="A47" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="7" t="inlineStr">
+      <c r="B47" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/fZwELexq/#/match-summary</t>
         </is>
       </c>
-      <c r="C47" s="6" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>Nomme Utd</t>
         </is>
       </c>
-      <c r="D47" s="6" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>Parnu JK Vaprus</t>
         </is>
       </c>
-      <c r="E47" s="6" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr">
         <is>
           <t>4.49</t>
         </is>
       </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="F47" s="3" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="G47" s="6" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
         <is>
           <t>1.61</t>
         </is>
       </c>
-      <c r="H47" s="6" t="inlineStr">
+      <c r="H47" s="3" t="inlineStr">
         <is>
           <t>['Nomme Utd', 'Flora']</t>
         </is>
       </c>
-      <c r="I47" s="6" t="inlineStr">
+      <c r="I47" s="3" t="inlineStr">
         <is>
           <t>('Flora', '1TIH')</t>
         </is>
       </c>
-      <c r="J47" s="6" t="inlineStr">
+      <c r="J47" s="5" t="inlineStr">
         <is>
           <t>0 - 4</t>
         </is>
       </c>
-      <c r="K47" s="6" t="inlineStr">
+      <c r="K47" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L47" s="6" t="inlineStr">
+      <c r="L47" s="3" t="inlineStr">
         <is>
           <t>['Parnu JK Vaprus', 'Kuressaare']</t>
         </is>
       </c>
-      <c r="M47" s="6" t="inlineStr">
+      <c r="M47" s="3" t="inlineStr">
         <is>
           <t>3 - 1</t>
         </is>
       </c>
-      <c r="N47" s="6" t="inlineStr">
+      <c r="N47" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O47" s="6" t="inlineStr">
+      <c r="O47" s="3" t="inlineStr">
         <is>
           <t>('Kuressaare', '2TIH')</t>
         </is>
       </c>
-      <c r="P47" s="6" t="n">
+      <c r="P47" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Q47" s="6" t="n">
+      <c r="Q47" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="R47" s="6" t="n">
+      <c r="R47" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="S47" s="6" t="n">
+      <c r="S47" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="T47" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U47" s="6" t="b">
+      <c r="T47" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" customFormat="1" s="3">
+      <c r="A48" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="inlineStr">
+      <c r="B48" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/l6GG589b/#/match-summary</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C48" s="3" t="inlineStr">
         <is>
           <t>Regensburg</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D48" s="3" t="inlineStr">
         <is>
           <t>Dusseldorf</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E48" s="3" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" s="3" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr">
         <is>
           <t>1.82</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H48" s="3" t="inlineStr">
         <is>
           <t>['Augsburg', 'Regensburg']</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="I48" s="3" t="inlineStr">
         <is>
           <t>('Augsburg', '1TIW')</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="J48" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="K48" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="L48" s="3" t="inlineStr">
         <is>
           <t>['Dusseldorf', 'Heracles']</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="M48" s="3" t="inlineStr">
         <is>
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="N48" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="O48" s="3" t="inlineStr">
         <is>
           <t>('Heracles', '2TIH')</t>
         </is>
       </c>
-      <c r="P48" t="n">
+      <c r="P48" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="Q48" t="n">
+      <c r="Q48" s="3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4958,7 +5003,7 @@
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K49" s="3" t="inlineStr">
+      <c r="K49" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4973,7 +5018,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N49" s="3" t="inlineStr">
+      <c r="N49" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -4990,189 +5035,190 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" customFormat="1" s="8">
-      <c r="A50" s="3" t="n">
+    <row r="50" customFormat="1" s="2">
+      <c r="A50" s="14" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="15" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/61mOLjZg/#/match-summary</t>
         </is>
       </c>
-      <c r="C50" s="3" t="inlineStr">
+      <c r="C50" s="14" t="inlineStr">
         <is>
           <t>Akranes</t>
         </is>
       </c>
-      <c r="D50" s="3" t="inlineStr">
+      <c r="D50" s="14" t="inlineStr">
         <is>
           <t>Vikingur Reykjavik</t>
         </is>
       </c>
-      <c r="E50" s="3" t="inlineStr">
+      <c r="E50" s="14" t="inlineStr">
         <is>
           <t>4.81</t>
         </is>
       </c>
-      <c r="F50" s="3" t="inlineStr">
+      <c r="F50" s="14" t="inlineStr">
         <is>
           <t>4.55</t>
         </is>
       </c>
-      <c r="G50" s="3" t="inlineStr">
+      <c r="G50" s="14" t="inlineStr">
         <is>
           <t>1.57</t>
         </is>
       </c>
-      <c r="H50" s="3" t="inlineStr">
+      <c r="H50" s="14" t="inlineStr">
         <is>
           <t>['Akranes', 'Hafnarfjordur']</t>
         </is>
       </c>
-      <c r="I50" s="3" t="inlineStr">
+      <c r="I50" s="14" t="inlineStr">
         <is>
           <t>('Hafnarfjordur', '1TIH')</t>
         </is>
       </c>
-      <c r="J50" s="3" t="inlineStr">
+      <c r="J50" s="16" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="K50" s="3" t="inlineStr">
+      <c r="K50" s="16" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="L50" s="3" t="inlineStr">
+      <c r="L50" s="14" t="inlineStr">
         <is>
           <t>['Vikingur Reykjavik', 'Stjarnan']</t>
         </is>
       </c>
-      <c r="M50" s="3" t="inlineStr">
+      <c r="M50" s="14" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="N50" s="3" t="inlineStr">
+      <c r="N50" s="14" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O50" s="3" t="inlineStr">
+      <c r="O50" s="14" t="inlineStr">
         <is>
           <t>('Stjarnan', '2TIH')</t>
         </is>
       </c>
-      <c r="P50" s="3" t="n">
+      <c r="P50" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="Q50" s="3" t="n">
+      <c r="Q50" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="R50" s="3" t="n">
+      <c r="R50" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="S50" s="3" t="n">
+      <c r="S50" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="T50" s="3" t="b">
+      <c r="T50" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="U50" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="U50" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="V50" s="17" t="n"/>
     </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="51" customFormat="1" s="3">
+      <c r="A51" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="inlineStr">
+      <c r="B51" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/AVNVq5jL/#/match-summary</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C51" s="3" t="inlineStr">
         <is>
           <t>East Bengal</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D51" s="3" t="inlineStr">
         <is>
           <t>Mohun Bagan</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E51" s="3" t="inlineStr">
         <is>
           <t>4.06</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F51" s="3" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
         <is>
           <t>1.73</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H51" s="3" t="inlineStr">
         <is>
           <t>['Jamshedpur', 'East Bengal']</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="I51" s="3" t="inlineStr">
         <is>
           <t>('Jamshedpur', '1TIW')</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="J51" s="3" t="inlineStr">
         <is>
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="K51" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="L51" s="3" t="inlineStr">
         <is>
           <t>['Mohun Bagan', 'Mohammedan']</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="M51" s="3" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="N51" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="O51" s="3" t="inlineStr">
         <is>
           <t>('Mohammedan', '2TIH')</t>
         </is>
       </c>
-      <c r="P51" t="n">
+      <c r="P51" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="Q51" t="n">
+      <c r="Q51" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="R51" t="n">
+      <c r="R51" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="S51" t="n">
+      <c r="S51" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="T51" t="b">
-        <v>0</v>
-      </c>
-      <c r="U51" t="b">
+      <c r="T51" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3" t="b">
         <v>0</v>
       </c>
     </row>
@@ -5225,7 +5271,7 @@
           <t>0 - 2</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr">
+      <c r="K52" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5240,7 +5286,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="N52" s="3" t="inlineStr">
+      <c r="N52" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5269,366 +5315,366 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="1" s="6">
-      <c r="A53" s="6" t="n">
+    <row r="53" customFormat="1" s="3">
+      <c r="A53" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="7" t="inlineStr">
+      <c r="B53" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/bixPonZf/#/match-summary</t>
         </is>
       </c>
-      <c r="C53" s="6" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>Vegalta Sendai</t>
         </is>
       </c>
-      <c r="D53" s="6" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
         <is>
           <t>Yokohama FC</t>
         </is>
       </c>
-      <c r="E53" s="6" t="inlineStr">
+      <c r="E53" s="3" t="inlineStr">
         <is>
           <t>4.02</t>
         </is>
       </c>
-      <c r="F53" s="6" t="inlineStr">
+      <c r="F53" s="3" t="inlineStr">
         <is>
           <t>3.44</t>
         </is>
       </c>
-      <c r="G53" s="6" t="inlineStr">
+      <c r="G53" s="3" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="H53" s="6" t="inlineStr">
+      <c r="H53" s="3" t="inlineStr">
         <is>
           <t>['Vegalta Sendai', 'Blaublitz']</t>
         </is>
       </c>
-      <c r="I53" s="6" t="inlineStr">
+      <c r="I53" s="3" t="inlineStr">
         <is>
           <t>('Blaublitz', '1TIH')</t>
         </is>
       </c>
-      <c r="J53" s="6" t="inlineStr">
+      <c r="J53" s="3" t="inlineStr">
         <is>
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K53" s="6" t="inlineStr">
+      <c r="K53" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L53" s="6" t="inlineStr">
+      <c r="L53" s="3" t="inlineStr">
         <is>
           <t>['Yokohama FC', 'Kagoshima Utd']</t>
         </is>
       </c>
-      <c r="M53" s="6" t="inlineStr">
+      <c r="M53" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N53" s="6" t="inlineStr">
+      <c r="N53" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O53" s="6" t="inlineStr">
+      <c r="O53" s="3" t="inlineStr">
         <is>
           <t>('Kagoshima Utd', '2TIH')</t>
         </is>
       </c>
-      <c r="P53" s="6" t="n">
+      <c r="P53" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Q53" s="6" t="n">
+      <c r="Q53" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R53" s="6" t="n">
+      <c r="R53" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="S53" s="6" t="n">
+      <c r="S53" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="T53" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U53" s="6" t="b">
+      <c r="T53" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="54" customFormat="1" s="3">
+      <c r="A54" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="inlineStr">
+      <c r="B54" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/COgeBHJ0/#/match-summary</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" s="3" t="inlineStr">
         <is>
           <t>Queretaro</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D54" s="3" t="inlineStr">
         <is>
           <t>Toluca</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E54" s="3" t="inlineStr">
         <is>
           <t>4.96</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F54" s="3" t="inlineStr">
         <is>
           <t>4.20</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
         <is>
           <t>1.60</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H54" s="3" t="inlineStr">
         <is>
           <t>['Mazatlan FC', 'Queretaro']</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="I54" s="3" t="inlineStr">
         <is>
           <t>('Mazatlan FC', '1TIW')</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="J54" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="K54" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
+      <c r="L54" s="3" t="inlineStr">
         <is>
           <t>['Toluca', 'U.N.A.M.- Pumas']</t>
         </is>
       </c>
-      <c r="M54" t="inlineStr">
+      <c r="M54" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="N54" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O54" t="inlineStr">
+      <c r="O54" s="3" t="inlineStr">
         <is>
           <t>('U.N.A.M.- Pumas', '2TIH')</t>
         </is>
       </c>
-      <c r="P54" t="n">
+      <c r="P54" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="Q54" t="n">
+      <c r="Q54" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R54" t="n">
+      <c r="R54" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="S54" t="n">
+      <c r="S54" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="T54" t="b">
+      <c r="T54" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U54" t="b">
+      <c r="U54" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="1" s="6">
-      <c r="A55" s="6" t="n">
+    <row r="55" customFormat="1" s="3">
+      <c r="A55" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="7" t="inlineStr">
+      <c r="B55" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/bX1rXbtK/#/match-summary</t>
         </is>
       </c>
-      <c r="C55" s="6" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>Puebla</t>
         </is>
       </c>
-      <c r="D55" s="6" t="inlineStr">
+      <c r="D55" s="3" t="inlineStr">
         <is>
           <t>Cruz Azul</t>
         </is>
       </c>
-      <c r="E55" s="6" t="inlineStr">
+      <c r="E55" s="3" t="inlineStr">
         <is>
           <t>5.19</t>
         </is>
       </c>
-      <c r="F55" s="6" t="inlineStr">
+      <c r="F55" s="3" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="G55" s="6" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
         <is>
           <t>1.56</t>
         </is>
       </c>
-      <c r="H55" s="6" t="inlineStr">
+      <c r="H55" s="3" t="inlineStr">
         <is>
           <t>['U.A.N.L.- Tigres', 'Puebla']</t>
         </is>
       </c>
-      <c r="I55" s="6" t="inlineStr">
+      <c r="I55" s="3" t="inlineStr">
         <is>
           <t>('U.A.N.L.- Tigres', '1TIW')</t>
         </is>
       </c>
-      <c r="J55" s="6" t="inlineStr">
+      <c r="J55" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K55" s="6" t="inlineStr">
+      <c r="K55" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L55" s="6" t="inlineStr">
+      <c r="L55" s="3" t="inlineStr">
         <is>
           <t>['Cruz Azul', 'Necaxa']</t>
         </is>
       </c>
-      <c r="M55" s="6" t="inlineStr">
+      <c r="M55" s="3" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N55" s="6" t="inlineStr">
+      <c r="N55" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O55" s="6" t="inlineStr">
+      <c r="O55" s="3" t="inlineStr">
         <is>
           <t>('Necaxa', '2TIH')</t>
         </is>
       </c>
-      <c r="P55" s="6" t="n">
+      <c r="P55" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="Q55" s="6" t="n">
+      <c r="Q55" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R55" s="6" t="n">
+      <c r="R55" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="S55" s="6" t="n">
+      <c r="S55" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="T55" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U55" s="6" t="b">
+      <c r="T55" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U55" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
+    <row r="56" customFormat="1" s="3">
+      <c r="A56" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="inlineStr">
+      <c r="B56" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/YXhMqyjm/#/match-summary</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="C56" s="3" t="inlineStr">
         <is>
           <t>Tromso</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="D56" s="3" t="inlineStr">
         <is>
           <t>Bodo/Glimt</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="E56" s="3" t="inlineStr">
         <is>
           <t>4.33</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="F56" s="3" t="inlineStr">
         <is>
           <t>4.03</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="H56" s="3" t="inlineStr">
         <is>
           <t>['Rosenborg', 'Tromso']</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="I56" s="3" t="inlineStr">
         <is>
           <t>('Rosenborg', '1TIW')</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="J56" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="K56" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L56" t="inlineStr">
+      <c r="L56" s="3" t="inlineStr">
         <is>
           <t>['Royale Union SG', 'Bodo/Glimt']</t>
         </is>
       </c>
-      <c r="M56" t="inlineStr">
+      <c r="M56" s="3" t="inlineStr">
         <is>
           <t>0 - 0</t>
         </is>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="N56" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O56" t="inlineStr">
+      <c r="O56" s="3" t="inlineStr">
         <is>
           <t>('Royale Union SG', '2TIW')</t>
         </is>
       </c>
-      <c r="P56" t="n">
+      <c r="P56" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="Q56" t="n">
+      <c r="Q56" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R56" t="n">
+      <c r="R56" s="3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -5681,7 +5727,7 @@
           <t>0 - 1</t>
         </is>
       </c>
-      <c r="K57" s="3" t="inlineStr">
+      <c r="K57" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5696,7 +5742,7 @@
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="N57" s="3" t="inlineStr">
+      <c r="N57" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -5725,746 +5771,747 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="1" s="6">
-      <c r="A58" s="6" t="n">
+    <row r="58" customFormat="1" s="3">
+      <c r="A58" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="7" t="inlineStr">
+      <c r="B58" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/fo8WKPQp/#/match-summary</t>
         </is>
       </c>
-      <c r="C58" s="6" t="inlineStr">
+      <c r="C58" s="3" t="inlineStr">
         <is>
           <t>Shamal</t>
         </is>
       </c>
-      <c r="D58" s="6" t="inlineStr">
+      <c r="D58" s="3" t="inlineStr">
         <is>
           <t>Al Arabi</t>
         </is>
       </c>
-      <c r="E58" s="6" t="inlineStr">
+      <c r="E58" s="3" t="inlineStr">
         <is>
           <t>3.46</t>
         </is>
       </c>
-      <c r="F58" s="6" t="inlineStr">
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="G58" s="6" t="inlineStr">
+      <c r="G58" s="3" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="H58" s="6" t="inlineStr">
+      <c r="H58" s="3" t="inlineStr">
         <is>
           <t>['Al-Gharafa', 'Shamal']</t>
         </is>
       </c>
-      <c r="I58" s="6" t="inlineStr">
+      <c r="I58" s="3" t="inlineStr">
         <is>
           <t>('Al-Gharafa', '1TIW')</t>
         </is>
       </c>
-      <c r="J58" s="6" t="inlineStr">
+      <c r="J58" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K58" s="6" t="inlineStr">
+      <c r="K58" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L58" s="6" t="inlineStr">
+      <c r="L58" s="3" t="inlineStr">
         <is>
           <t>['Al Arabi', 'Al-Duhail']</t>
         </is>
       </c>
-      <c r="M58" s="6" t="inlineStr">
+      <c r="M58" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N58" s="6" t="inlineStr">
+      <c r="N58" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O58" s="6" t="inlineStr">
+      <c r="O58" s="3" t="inlineStr">
         <is>
           <t>('Al-Duhail', '2TIH')</t>
         </is>
       </c>
-      <c r="P58" s="6" t="n">
+      <c r="P58" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="Q58" s="6" t="n">
+      <c r="Q58" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="R58" s="6" t="n">
+      <c r="R58" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="S58" s="6" t="n">
+      <c r="S58" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="T58" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U58" s="6" t="b">
+      <c r="T58" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
+    <row r="59" customFormat="1" s="3">
+      <c r="A59" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B59" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/zyxyWkZo/#/match-summary</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>Al Ahli Doha</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>Al-Duhail</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr">
         <is>
           <t>4.87</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F59" s="3" t="inlineStr">
         <is>
           <t>4.50</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G59" s="3" t="inlineStr">
         <is>
           <t>1.53</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" s="3" t="inlineStr">
         <is>
           <t>['Al-Shahaniya', 'Al Ahli Doha']</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="I59" s="3" t="inlineStr">
         <is>
           <t>('Al-Shahaniya', '1TIW')</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="J59" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="K59" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L59" t="inlineStr">
+      <c r="L59" s="3" t="inlineStr">
         <is>
           <t>['Al Arabi', 'Al-Duhail']</t>
         </is>
       </c>
-      <c r="M59" t="inlineStr">
+      <c r="M59" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="N59" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O59" t="inlineStr">
+      <c r="O59" s="3" t="inlineStr">
         <is>
           <t>('Al Arabi', '2TIW')</t>
         </is>
       </c>
-      <c r="P59" t="n">
+      <c r="P59" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="Q59" t="n">
+      <c r="Q59" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="R59" t="n">
+      <c r="R59" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="S59" t="n">
+      <c r="S59" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="T59" t="b">
-        <v>0</v>
-      </c>
-      <c r="U59" t="b">
+      <c r="T59" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="1" s="6">
-      <c r="A60" s="6" t="n">
+    <row r="60" customFormat="1" s="3">
+      <c r="A60" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="7" t="inlineStr">
+      <c r="B60" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/4GTiS7YA/#/match-summary</t>
         </is>
       </c>
-      <c r="C60" s="6" t="inlineStr">
+      <c r="C60" s="3" t="inlineStr">
         <is>
           <t>Qatar SC</t>
         </is>
       </c>
-      <c r="D60" s="6" t="inlineStr">
+      <c r="D60" s="3" t="inlineStr">
         <is>
           <t>Al Wakra</t>
         </is>
       </c>
-      <c r="E60" s="6" t="inlineStr">
+      <c r="E60" s="3" t="inlineStr">
         <is>
           <t>3.89</t>
         </is>
       </c>
-      <c r="F60" s="6" t="inlineStr">
+      <c r="F60" s="3" t="inlineStr">
         <is>
           <t>3.88</t>
         </is>
       </c>
-      <c r="G60" s="6" t="inlineStr">
+      <c r="G60" s="3" t="inlineStr">
         <is>
           <t>1.76</t>
         </is>
       </c>
-      <c r="H60" s="6" t="inlineStr">
+      <c r="H60" s="3" t="inlineStr">
         <is>
           <t>['Al Rayyan', 'Qatar SC']</t>
         </is>
       </c>
-      <c r="I60" s="6" t="inlineStr">
+      <c r="I60" s="3" t="inlineStr">
         <is>
           <t>('Al Rayyan', '1TIW')</t>
         </is>
       </c>
-      <c r="J60" s="6" t="inlineStr">
+      <c r="J60" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K60" s="6" t="inlineStr">
+      <c r="K60" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L60" s="6" t="inlineStr">
+      <c r="L60" s="3" t="inlineStr">
         <is>
           <t>['Al Wakra', 'Umm-Salal']</t>
         </is>
       </c>
-      <c r="M60" s="6" t="inlineStr">
+      <c r="M60" s="3" t="inlineStr">
         <is>
           <t>2 - 0</t>
         </is>
       </c>
-      <c r="N60" s="6" t="inlineStr">
+      <c r="N60" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O60" s="6" t="inlineStr">
+      <c r="O60" s="3" t="inlineStr">
         <is>
           <t>('Umm-Salal', '2TIH')</t>
         </is>
       </c>
-      <c r="P60" s="6" t="n">
+      <c r="P60" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="Q60" s="6" t="n">
+      <c r="Q60" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="R60" s="6" t="n">
+      <c r="R60" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="S60" s="6" t="n">
+      <c r="S60" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="T60" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U60" s="6" t="b">
+      <c r="T60" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="1" s="6">
-      <c r="A61" s="6" t="n">
+    <row r="61" customFormat="1" s="3">
+      <c r="A61" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="B61" s="7" t="inlineStr">
+      <c r="B61" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/ngrfuS4F/#/match-summary</t>
         </is>
       </c>
-      <c r="C61" s="6" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>Petrolul</t>
         </is>
       </c>
-      <c r="D61" s="6" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>CFR Cluj</t>
         </is>
       </c>
-      <c r="E61" s="6" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr">
         <is>
           <t>4.30</t>
         </is>
       </c>
-      <c r="F61" s="6" t="inlineStr">
+      <c r="F61" s="3" t="inlineStr">
         <is>
           <t>3.50</t>
         </is>
       </c>
-      <c r="G61" s="6" t="inlineStr">
+      <c r="G61" s="3" t="inlineStr">
         <is>
           <t>1.83</t>
         </is>
       </c>
-      <c r="H61" s="6" t="inlineStr">
+      <c r="H61" s="3" t="inlineStr">
         <is>
           <t>['Petrolul', 'Vitesse']</t>
         </is>
       </c>
-      <c r="I61" s="6" t="inlineStr">
+      <c r="I61" s="3" t="inlineStr">
         <is>
           <t>('Vitesse', '1TIH')</t>
         </is>
       </c>
-      <c r="J61" s="6" t="inlineStr">
+      <c r="J61" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K61" s="6" t="inlineStr">
+      <c r="K61" s="8" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L61" s="6" t="inlineStr">
+      <c r="L61" s="3" t="inlineStr">
         <is>
           <t>['CFR Cluj', 'Poli Iasi']</t>
         </is>
       </c>
-      <c r="M61" s="6" t="inlineStr">
+      <c r="M61" s="3" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="N61" s="6" t="inlineStr">
+      <c r="N61" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O61" s="6" t="inlineStr">
+      <c r="O61" s="3" t="inlineStr">
         <is>
           <t>('Poli Iasi', '2TIH')</t>
         </is>
       </c>
-      <c r="P61" s="6" t="n">
+      <c r="P61" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="Q61" s="6" t="n">
+      <c r="Q61" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="S61" s="6" t="n">
+      <c r="S61" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="T61" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U61" s="6" t="b">
+      <c r="T61" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="62" customFormat="1" s="3">
+      <c r="A62" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="inlineStr">
+      <c r="B62" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/KIrlsi66/#/match-summary</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C62" s="3" t="inlineStr">
         <is>
           <t>Pari NN</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D62" s="3" t="inlineStr">
         <is>
           <t>FK Rostov</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" s="3" t="inlineStr">
         <is>
           <t>5.07</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F62" s="3" t="inlineStr">
         <is>
           <t>4.04</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G62" s="3" t="inlineStr">
         <is>
           <t>1.75</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H62" s="3" t="inlineStr">
         <is>
           <t>['CSKA Moscow', 'Pari NN']</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="I62" s="3" t="inlineStr">
         <is>
           <t>('CSKA Moscow', '1TIW')</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="J62" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
+      <c r="K62" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L62" t="inlineStr">
+      <c r="L62" s="3" t="inlineStr">
         <is>
           <t>['Spartak Moscow', 'FK Rostov']</t>
         </is>
       </c>
-      <c r="M62" t="inlineStr">
+      <c r="M62" s="3" t="inlineStr">
         <is>
           <t>3 - 0</t>
         </is>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="N62" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O62" t="inlineStr">
+      <c r="O62" s="3" t="inlineStr">
         <is>
           <t>('Spartak Moscow', '2TIW')</t>
         </is>
       </c>
-      <c r="P62" t="n">
+      <c r="P62" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="Q62" t="n">
+      <c r="Q62" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="R62" t="n">
+      <c r="R62" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="S62" t="n">
+      <c r="S62" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="T62" t="b">
+      <c r="T62" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="U62" t="b">
+      <c r="U62" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="1" s="6">
-      <c r="A63" s="6" t="n">
+    <row r="63" customFormat="1" s="3">
+      <c r="A63" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="7" t="inlineStr">
+      <c r="B63" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/pzoFejLa/#/match-summary</t>
         </is>
       </c>
-      <c r="C63" s="6" t="inlineStr">
+      <c r="C63" s="3" t="inlineStr">
         <is>
           <t>Khimki</t>
         </is>
       </c>
-      <c r="D63" s="6" t="inlineStr">
+      <c r="D63" s="3" t="inlineStr">
         <is>
           <t>Lokomotiv Moscow</t>
         </is>
       </c>
-      <c r="E63" s="6" t="inlineStr">
+      <c r="E63" s="3" t="inlineStr">
         <is>
           <t>5.32</t>
         </is>
       </c>
-      <c r="F63" s="6" t="inlineStr">
+      <c r="F63" s="3" t="inlineStr">
         <is>
           <t>4.61</t>
         </is>
       </c>
-      <c r="G63" s="6" t="inlineStr">
+      <c r="G63" s="3" t="inlineStr">
         <is>
           <t>1.64</t>
         </is>
       </c>
-      <c r="H63" s="6" t="inlineStr">
+      <c r="H63" s="3" t="inlineStr">
         <is>
           <t>['Krasnodar', 'Khimki']</t>
         </is>
       </c>
-      <c r="I63" s="6" t="inlineStr">
+      <c r="I63" s="3" t="inlineStr">
         <is>
           <t>('Krasnodar', '1TIW')</t>
         </is>
       </c>
-      <c r="J63" s="6" t="inlineStr">
+      <c r="J63" s="5" t="inlineStr">
         <is>
           <t>4 - 0</t>
         </is>
       </c>
-      <c r="K63" s="6" t="inlineStr">
+      <c r="K63" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L63" s="6" t="inlineStr">
+      <c r="L63" s="3" t="inlineStr">
         <is>
           <t>['Lokomotiv Moscow', 'Krylya Sovetov']</t>
         </is>
       </c>
-      <c r="M63" s="6" t="inlineStr">
+      <c r="M63" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="N63" s="6" t="inlineStr">
+      <c r="N63" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O63" s="6" t="inlineStr">
+      <c r="O63" s="3" t="inlineStr">
         <is>
           <t>('Krylya Sovetov', '2TIH')</t>
         </is>
       </c>
-      <c r="P63" s="6" t="n">
+      <c r="P63" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="Q63" s="6" t="n">
+      <c r="Q63" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="R63" s="6" t="n">
+      <c r="R63" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="S63" s="6" t="n">
+      <c r="S63" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="T63" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U63" s="6" t="b">
+      <c r="T63" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
+    <row r="64" customFormat="1" s="3">
+      <c r="A64" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="inlineStr">
+      <c r="B64" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/hx6z3YSP/#/match-summary</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="C64" s="3" t="inlineStr">
         <is>
           <t>Dynamo Makhachkala</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D64" s="3" t="inlineStr">
         <is>
           <t>CSKA Moscow</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E64" s="3" t="inlineStr">
         <is>
           <t>5.22</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F64" s="3" t="inlineStr">
         <is>
           <t>3.55</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G64" s="3" t="inlineStr">
         <is>
           <t>1.85</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H64" s="3" t="inlineStr">
         <is>
           <t>['Fakel Voronezh', 'Dynamo Makhachkala']</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="I64" s="3" t="inlineStr">
         <is>
           <t>('Fakel Voronezh', '1TIW')</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="J64" s="3" t="inlineStr">
         <is>
           <t>1 - 1</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="K64" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L64" t="inlineStr">
+      <c r="L64" s="3" t="inlineStr">
         <is>
           <t>['CSKA Moscow', 'Pari NN']</t>
         </is>
       </c>
-      <c r="M64" t="inlineStr">
+      <c r="M64" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="N64" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="O64" t="inlineStr">
+      <c r="O64" s="3" t="inlineStr">
         <is>
           <t>('Pari NN', '2TIH')</t>
         </is>
       </c>
-      <c r="P64" t="n">
+      <c r="P64" s="3" t="n">
         <v>11</v>
       </c>
-      <c r="Q64" t="n">
+      <c r="Q64" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="R64" t="n">
+      <c r="R64" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="S64" t="n">
+      <c r="S64" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="T64" t="b">
-        <v>0</v>
-      </c>
-      <c r="U64" t="b">
+      <c r="T64" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="1" s="6">
-      <c r="A65" s="6" t="n">
+    <row r="65" customFormat="1" s="3">
+      <c r="A65" s="10" t="n">
         <v>64</v>
       </c>
-      <c r="B65" s="7" t="inlineStr">
+      <c r="B65" s="11" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/YRBtUvA5/#/match-summary</t>
         </is>
       </c>
-      <c r="C65" s="6" t="inlineStr">
+      <c r="C65" s="10" t="inlineStr">
         <is>
           <t>Forfar Athletic</t>
         </is>
       </c>
-      <c r="D65" s="6" t="inlineStr">
+      <c r="D65" s="10" t="inlineStr">
         <is>
           <t>East Fife</t>
         </is>
       </c>
-      <c r="E65" s="6" t="inlineStr">
+      <c r="E65" s="10" t="inlineStr">
         <is>
           <t>4.85</t>
         </is>
       </c>
-      <c r="F65" s="6" t="inlineStr">
+      <c r="F65" s="10" t="inlineStr">
         <is>
           <t>3.80</t>
         </is>
       </c>
-      <c r="G65" s="6" t="inlineStr">
+      <c r="G65" s="10" t="inlineStr">
         <is>
           <t>1.63</t>
         </is>
       </c>
-      <c r="H65" s="6" t="inlineStr">
+      <c r="H65" s="10" t="inlineStr">
         <is>
           <t>['Stirling', 'Forfar Athletic']</t>
         </is>
       </c>
-      <c r="I65" s="6" t="inlineStr">
+      <c r="I65" s="10" t="inlineStr">
         <is>
           <t>('Stirling', '1TIW')</t>
         </is>
       </c>
-      <c r="J65" s="6" t="inlineStr">
+      <c r="J65" s="10" t="inlineStr">
         <is>
           <t>2 - 1</t>
         </is>
       </c>
-      <c r="K65" s="6" t="inlineStr">
+      <c r="K65" s="13" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L65" s="6" t="inlineStr">
+      <c r="L65" s="10" t="inlineStr">
         <is>
           <t>['East Fife', 'Bonnyrigg Rose']</t>
         </is>
       </c>
-      <c r="M65" s="6" t="inlineStr">
+      <c r="M65" s="12" t="inlineStr">
         <is>
           <t>5 - 0</t>
         </is>
       </c>
-      <c r="N65" s="6" t="inlineStr">
+      <c r="N65" s="10" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O65" s="6" t="inlineStr">
+      <c r="O65" s="10" t="inlineStr">
         <is>
           <t>('Bonnyrigg Rose', '2TIH')</t>
         </is>
       </c>
-      <c r="P65" s="6" t="n">
+      <c r="P65" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="Q65" s="6" t="n">
+      <c r="Q65" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="R65" s="6" t="n">
+      <c r="R65" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="S65" s="6" t="n">
+      <c r="S65" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="T65" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U65" s="6" t="b">
-        <v>0</v>
-      </c>
+      <c r="T65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="U65" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="V65" s="18" t="n"/>
     </row>
     <row r="66" customFormat="1" s="3">
       <c r="A66" s="3" t="n">
@@ -6515,7 +6562,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K66" s="3" t="inlineStr">
+      <c r="K66" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6599,7 +6646,7 @@
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="K67" s="3" t="inlineStr">
+      <c r="K67" s="6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6614,7 +6661,7 @@
           <t>1 - 3</t>
         </is>
       </c>
-      <c r="N67" s="3" t="inlineStr">
+      <c r="N67" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6680,7 +6727,7 @@
           <t>1 - 2</t>
         </is>
       </c>
-      <c r="K68" s="3" t="inlineStr">
+      <c r="K68" s="9" t="inlineStr">
         <is>
           <t>W</t>
         </is>
@@ -6724,177 +6771,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="1" s="6">
-      <c r="A69" s="6" t="n">
+    <row r="69" customFormat="1" s="3">
+      <c r="A69" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="B69" s="7" t="inlineStr">
+      <c r="B69" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/lUthg5ia/#/match-summary</t>
         </is>
       </c>
-      <c r="C69" s="6" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>Halmstad</t>
         </is>
       </c>
-      <c r="D69" s="6" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>Sirius</t>
         </is>
       </c>
-      <c r="E69" s="6" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr">
         <is>
           <t>3.64</t>
         </is>
       </c>
-      <c r="F69" s="6" t="inlineStr">
+      <c r="F69" s="3" t="inlineStr">
         <is>
           <t>3.65</t>
         </is>
       </c>
-      <c r="G69" s="6" t="inlineStr">
+      <c r="G69" s="3" t="inlineStr">
         <is>
           <t>1.99</t>
         </is>
       </c>
-      <c r="H69" s="6" t="inlineStr">
+      <c r="H69" s="3" t="inlineStr">
         <is>
           <t>['Hammarby', 'Halmstad']</t>
         </is>
       </c>
-      <c r="I69" s="6" t="inlineStr">
+      <c r="I69" s="3" t="inlineStr">
         <is>
           <t>('Hammarby', '1TIW')</t>
         </is>
       </c>
-      <c r="J69" s="6" t="inlineStr">
+      <c r="J69" s="3" t="inlineStr">
         <is>
           <t>1 - 0</t>
         </is>
       </c>
-      <c r="K69" s="6" t="inlineStr">
+      <c r="K69" s="8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="L69" s="6" t="inlineStr">
+      <c r="L69" s="3" t="inlineStr">
         <is>
           <t>['Sirius', 'Elfsborg']</t>
         </is>
       </c>
-      <c r="M69" s="6" t="inlineStr">
+      <c r="M69" s="3" t="inlineStr">
         <is>
           <t>4 - 1</t>
         </is>
       </c>
-      <c r="N69" s="6" t="inlineStr">
+      <c r="N69" s="7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="O69" s="6" t="inlineStr">
+      <c r="O69" s="3" t="inlineStr">
         <is>
           <t>('Elfsborg', '2TIH')</t>
         </is>
       </c>
-      <c r="P69" s="6" t="n">
+      <c r="P69" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="Q69" s="6" t="n">
+      <c r="Q69" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="R69" s="6" t="n">
+      <c r="R69" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="S69" s="6" t="n">
+      <c r="S69" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="T69" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="U69" s="6" t="b">
+      <c r="T69" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="70" customFormat="1" s="3">
+      <c r="A70" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="inlineStr">
+      <c r="B70" s="4" t="inlineStr">
         <is>
           <t>https://www.flashscore.com.ng/match/2ZaHXtbD/#/match-summary</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="C70" s="3" t="inlineStr">
         <is>
           <t>Vaduz</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D70" s="3" t="inlineStr">
         <is>
           <t>Thun</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E70" s="3" t="inlineStr">
         <is>
           <t>3.26</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F70" s="3" t="inlineStr">
         <is>
           <t>3.70</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G70" s="3" t="inlineStr">
         <is>
           <t>1.98</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H70" s="3" t="inlineStr">
         <is>
           <t>['Zurich', 'Vaduz']</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I70" s="3" t="inlineStr">
         <is>
           <t>('Zurich', '1TIW')</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J70" s="3" t="inlineStr">
         <is>
           <t>2 - 2</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="K70" s="3" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="L70" t="inlineStr">
+      <c r="L70" s="3" t="inlineStr">
         <is>
           <t>['Thun', 'Luzern']</t>
         </is>
       </c>
-      <c r="M70" t="inlineStr">
+      <c r="M70" s="3" t="inlineStr">
         <is>
           <t>2 - 3</t>
         </is>
       </c>
-      <c r="N70" t="inlineStr">
+      <c r="N70" s="3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="O70" t="inlineStr">
+      <c r="O70" s="3" t="inlineStr">
         <is>
           <t>('Luzern', '2TIH')</t>
         </is>
       </c>
-      <c r="P70" t="n">
+      <c r="P70" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="Q70" t="n">
+      <c r="Q70" s="3" t="n">
         <v>1</v>
       </c>
     </row>
